--- a/Project/excel_source/majors_list.xlsx
+++ b/Project/excel_source/majors_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/elettra_scianetti_johncabot_edu/Documents/Documents/advising/Project/excel_source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcuoncloud-my.sharepoint.com/personal/pangelini_johncabot_edu/Documents/Teaching/ResearchAssistantship/FA22-Elettra/advising/Project/excel_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2858" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE2A7E6-536E-468D-BD92-E1A1ABAE4D20}"/>
+  <xr:revisionPtr revIDLastSave="2865" documentId="13_ncr:1_{C33D7932-E03C-452A-ACDA-0A7400E5C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E57CCF-8BFE-436A-9CCA-4AAEA87A00F4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39B82AA1-F665-4363-970D-8821589D72FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Majors" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="262">
   <si>
     <t>Major Name</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>ITS/CMS</t>
+  </si>
+  <si>
+    <t>Social Science Research Methodology</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1213,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1514,26 +1513,26 @@
   <dimension ref="A1:G829"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="38.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="14" customWidth="1"/>
     <col min="6" max="6" width="90" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="20.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="14"/>
+    <col min="8" max="8" width="20.1796875" style="14" customWidth="1"/>
     <col min="9" max="9" width="15" style="14" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="14"/>
+    <col min="10" max="10" width="15.54296875" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>78</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>79</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>80</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>81</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>81</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>82</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>83</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>61</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>62</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>72</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>73</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>75</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>76</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>76</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>76</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>77</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>77</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>87</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>58</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>59</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>59</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>59</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>59</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>59</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>59</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>59</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>59</v>
       </c>
@@ -2118,7 +2117,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>78</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>79</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>80</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>80</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>81</v>
       </c>
@@ -2271,7 +2270,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>81</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>83</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>61</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>62</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>72</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>73</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>74</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>75</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>76</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>76</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>76</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>77</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>77</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>87</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>58</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>58</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>59</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>59</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>59</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>59</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>59</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>59</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>59</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>38</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>55</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>56</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>78</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>79</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>80</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>80</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>81</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>81</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>82</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>61</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>62</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>72</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>73</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>73</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>74</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>75</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>75</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>75</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>76</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>76</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>77</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>58</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>58</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>58</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>58</v>
       </c>
@@ -3172,7 +3171,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>58</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>59</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>59</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>59</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>59</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>59</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>59</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>59</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>59</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>59</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>59</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>59</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>59</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>47</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>56</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>78</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>79</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>80</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>61</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>61</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>62</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>62</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>72</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>72</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>73</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>74</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>75</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>76</v>
       </c>
@@ -3665,7 +3664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>77</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>87</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>91</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>92</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>92</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>93</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>58</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>58</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>58</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>58</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>58</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>58</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>31</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>55</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>56</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>78</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>61</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>62</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>72</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>73</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>73</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>74</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>74</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>75</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>76</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>77</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>87</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>91</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>92</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>93</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>58</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>58</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>58</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>58</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>58</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>58</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>58</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>58</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>53</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>61</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>62</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>72</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>73</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>74</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>75</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>76</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>77</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>87</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>91</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>92</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="14" t="s">
         <v>58</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>52</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="14" t="s">
         <v>61</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>62</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>72</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>73</v>
       </c>
@@ -4628,13 +4627,13 @@
         <v>25</v>
       </c>
       <c r="D182" s="14">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="E182" s="14">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>73</v>
       </c>
@@ -4645,13 +4644,16 @@
         <v>25</v>
       </c>
       <c r="D183" s="14">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E183" s="14">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="F183" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>73</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>73</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D185" s="14">
         <v>208</v>
@@ -4688,7 +4690,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>74</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>58</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>58</v>
       </c>
@@ -4737,7 +4739,7 @@
       </c>
       <c r="F188" s="22"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>59</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>60</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>54</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>61</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
         <v>62</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>72</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="14" t="s">
         <v>73</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>74</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="14" t="s">
         <v>75</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="14" t="s">
         <v>76</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
         <v>77</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
         <v>87</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="14" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +4967,7 @@
       </c>
       <c r="F201" s="21"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="14" t="s">
         <v>87</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="14" t="s">
         <v>87</v>
       </c>
@@ -4999,7 +5001,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="14" t="s">
         <v>87</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="14" t="s">
         <v>87</v>
       </c>
@@ -5033,7 +5035,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="14" t="s">
         <v>91</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="14" t="s">
         <v>58</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
         <v>51</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="14" t="s">
         <v>55</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="14" t="s">
         <v>55</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="14" t="s">
         <v>56</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="14" t="s">
         <v>56</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="14" t="s">
         <v>78</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="14" t="s">
         <v>79</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="14" t="s">
         <v>80</v>
       </c>
@@ -5206,7 +5208,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="14" t="s">
         <v>61</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="14" t="s">
         <v>62</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="14" t="s">
         <v>72</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
         <v>73</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="14" t="s">
         <v>74</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14" t="s">
         <v>75</v>
       </c>
@@ -5308,7 +5310,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="14" t="s">
         <v>75</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="14" t="s">
         <v>76</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="14" t="s">
         <v>77</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="14" t="s">
         <v>87</v>
       </c>
@@ -5376,7 +5378,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>91</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="14" t="s">
         <v>58</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="14" t="s">
         <v>58</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
         <v>58</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
         <v>58</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
         <v>58</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
         <v>58</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
         <v>58</v>
       </c>
@@ -5512,7 +5514,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
         <v>50</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>55</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
         <v>56</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
         <v>78</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
         <v>79</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
         <v>79</v>
       </c>
@@ -5614,7 +5616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
         <v>80</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
         <v>81</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
         <v>61</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="14" t="s">
         <v>62</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="14" t="s">
         <v>72</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
         <v>73</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="14" t="s">
         <v>74</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
         <v>74</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="14" t="s">
         <v>75</v>
       </c>
@@ -5767,7 +5769,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="14" t="s">
         <v>76</v>
       </c>
@@ -5784,7 +5786,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="14" t="s">
         <v>77</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="14" t="s">
         <v>58</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="14" t="s">
         <v>59</v>
       </c>
@@ -5835,7 +5837,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="14" t="s">
         <v>59</v>
       </c>
@@ -5852,7 +5854,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="14" t="s">
         <v>59</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="14" t="s">
         <v>59</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="14" t="s">
         <v>59</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
         <v>59</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="14" t="s">
         <v>59</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="14" t="s">
         <v>59</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="14" t="s">
         <v>59</v>
       </c>
@@ -5971,7 +5973,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="14" t="s">
         <v>48</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="14" t="s">
         <v>61</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
         <v>62</v>
       </c>
@@ -6022,7 +6024,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
         <v>62</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="14" t="s">
         <v>62</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="14" t="s">
         <v>72</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="14" t="s">
         <v>73</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="14" t="s">
         <v>74</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="14" t="s">
         <v>74</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="14" t="s">
         <v>74</v>
       </c>
@@ -6142,7 +6144,7 @@
       </c>
       <c r="F270" s="22"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="14" t="s">
         <v>75</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="14" t="s">
         <v>75</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="14" t="s">
         <v>76</v>
       </c>
@@ -6193,7 +6195,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="14" t="s">
         <v>77</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="14" t="s">
         <v>87</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="14" t="s">
         <v>91</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
         <v>91</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>91</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
         <v>92</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="14" t="s">
         <v>58</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>58</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
         <v>58</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
         <v>58</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
         <v>58</v>
       </c>
@@ -6380,7 +6382,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
         <v>58</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
         <v>58</v>
       </c>
@@ -6414,7 +6416,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
         <v>58</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
         <v>58</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
         <v>58</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
         <v>58</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
         <v>58</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="14" t="s">
         <v>58</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="14" t="s">
         <v>58</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>58</v>
       </c>
@@ -6550,7 +6552,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="14" t="s">
         <v>58</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="14" t="s">
         <v>58</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="14" t="s">
         <v>58</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
         <v>58</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
         <v>58</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
         <v>58</v>
       </c>
@@ -6652,7 +6654,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
         <v>58</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>58</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="14" t="s">
         <v>58</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
         <v>58</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="14" t="s">
         <v>58</v>
       </c>
@@ -6737,7 +6739,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="14" t="s">
         <v>58</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
         <v>58</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
         <v>58</v>
       </c>
@@ -6788,7 +6790,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="14" t="s">
         <v>58</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="14" t="s">
         <v>58</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="14" t="s">
         <v>58</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="14" t="s">
         <v>58</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>58</v>
       </c>
@@ -6873,7 +6875,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="14" t="s">
         <v>58</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
         <v>58</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="14" t="s">
         <v>58</v>
       </c>
@@ -6924,7 +6926,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>58</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
         <v>58</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="14" t="s">
         <v>58</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="14" t="s">
         <v>58</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="14" t="s">
         <v>58</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="14" t="s">
         <v>58</v>
       </c>
@@ -7026,7 +7028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
         <v>58</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
         <v>58</v>
       </c>
@@ -7060,7 +7062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="14" t="s">
         <v>58</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="14" t="s">
         <v>58</v>
       </c>
@@ -7094,7 +7096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
         <v>58</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
         <v>58</v>
       </c>
@@ -7128,7 +7130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="14" t="s">
         <v>58</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="14" t="s">
         <v>58</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
         <v>58</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
         <v>58</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
         <v>58</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="14" t="s">
         <v>58</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
         <v>49</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="14" t="s">
         <v>61</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
         <v>62</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="14" t="s">
         <v>72</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
         <v>73</v>
       </c>
@@ -7312,7 +7314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="14" t="s">
         <v>73</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
         <v>73</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="14" t="s">
         <v>73</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
         <v>73</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
         <v>73</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
         <v>73</v>
       </c>
@@ -7414,7 +7416,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
         <v>73</v>
       </c>
@@ -7431,7 +7433,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="14" t="s">
         <v>73</v>
       </c>
@@ -7448,7 +7450,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
         <v>74</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="14" t="s">
         <v>74</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
         <v>92</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="14" t="s">
         <v>75</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
         <v>76</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
         <v>76</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
         <v>77</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="14" t="s">
         <v>87</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
         <v>87</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
         <v>91</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="14" t="s">
         <v>58</v>
       </c>
@@ -7635,7 +7637,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="14" t="s">
         <v>58</v>
       </c>
@@ -7652,7 +7654,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
         <v>58</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="14" t="s">
         <v>58</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
         <v>58</v>
       </c>
@@ -7703,7 +7705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
         <v>58</v>
       </c>
@@ -7720,7 +7722,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
         <v>58</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="14" t="s">
         <v>58</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="14" t="s">
         <v>58</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="14" t="s">
         <v>58</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
         <v>58</v>
       </c>
@@ -7805,7 +7807,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="14" t="s">
         <v>58</v>
       </c>
@@ -7822,7 +7824,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="14" t="s">
         <v>58</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="14" t="s">
         <v>58</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="14" t="s">
         <v>58</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="14" t="s">
         <v>58</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="14" t="s">
         <v>58</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="14" t="s">
         <v>58</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="14" t="s">
         <v>58</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="14" t="s">
         <v>58</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="14" t="s">
         <v>58</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="14" t="s">
         <v>58</v>
       </c>
@@ -7992,7 +7994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="14" t="s">
         <v>58</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="14" t="s">
         <v>58</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="14" t="s">
         <v>58</v>
       </c>
@@ -8043,7 +8045,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="14" t="s">
         <v>58</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="14" t="s">
         <v>58</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="14" t="s">
         <v>58</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="14" t="s">
         <v>58</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="14" t="s">
         <v>58</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="14" t="s">
         <v>58</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="14" t="s">
         <v>58</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="14" t="s">
         <v>58</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="14" t="s">
         <v>58</v>
       </c>
@@ -8196,7 +8198,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="14" t="s">
         <v>58</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="14" t="s">
         <v>58</v>
       </c>
@@ -8230,7 +8232,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
         <v>58</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="14" t="s">
         <v>58</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="14" t="s">
         <v>58</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="14" t="s">
         <v>58</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="14" t="s">
         <v>58</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="14" t="s">
         <v>58</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="14" t="s">
         <v>58</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="14" t="s">
         <v>58</v>
       </c>
@@ -8366,7 +8368,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="14" t="s">
         <v>58</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="14" t="s">
         <v>58</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="14" t="s">
         <v>58</v>
       </c>
@@ -8417,7 +8419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="14" t="s">
         <v>58</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="14" t="s">
         <v>58</v>
       </c>
@@ -8451,7 +8453,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="14" t="s">
         <v>58</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="14" t="s">
         <v>58</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="14" t="s">
         <v>58</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="14" t="s">
         <v>35</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="14" t="s">
         <v>61</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="14" t="s">
         <v>62</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="14" t="s">
         <v>72</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="14" t="s">
         <v>73</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="14" t="s">
         <v>74</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="14" t="s">
         <v>75</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="14" t="s">
         <v>76</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="14" t="s">
         <v>77</v>
       </c>
@@ -8653,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="14" t="s">
         <v>87</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="14" t="s">
         <v>91</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="14" t="s">
         <v>58</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="14" t="s">
         <v>59</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="14" t="s">
         <v>59</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="14" t="s">
         <v>59</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="14" t="s">
         <v>59</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="14" t="s">
         <v>60</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="14" t="s">
         <v>60</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="14" t="s">
         <v>60</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="14" t="s">
         <v>60</v>
       </c>
@@ -8840,7 +8842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="14" t="s">
         <v>60</v>
       </c>
@@ -8857,7 +8859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="14" t="s">
         <v>60</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="14" t="s">
         <v>60</v>
       </c>
@@ -8891,7 +8893,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="14" t="s">
         <v>60</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="14" t="s">
         <v>60</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="14" t="s">
         <v>60</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="14" t="s">
         <v>60</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="14" t="s">
         <v>60</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="14" t="s">
         <v>60</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="14" t="s">
         <v>60</v>
       </c>
@@ -9010,7 +9012,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="14" t="s">
         <v>60</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="14" t="s">
         <v>60</v>
       </c>
@@ -9044,7 +9046,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="14" t="s">
         <v>60</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="14" t="s">
         <v>60</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="14" t="s">
         <v>60</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="14" t="s">
         <v>60</v>
       </c>
@@ -9112,7 +9114,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="14" t="s">
         <v>60</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="14" t="s">
         <v>60</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="14" t="s">
         <v>60</v>
       </c>
@@ -9163,7 +9165,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="14" t="s">
         <v>60</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="14" t="s">
         <v>60</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="14" t="s">
         <v>60</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="14" t="s">
         <v>60</v>
       </c>
@@ -9231,7 +9233,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="14" t="s">
         <v>60</v>
       </c>
@@ -9248,7 +9250,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="14" t="s">
         <v>60</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="14" t="s">
         <v>60</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="14" t="s">
         <v>60</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="14" t="s">
         <v>60</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="14" t="s">
         <v>60</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="14" t="s">
         <v>60</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="14" t="s">
         <v>60</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="14" t="s">
         <v>230</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="14" t="s">
         <v>61</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="14" t="s">
         <v>62</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="14" t="s">
         <v>72</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="14" t="s">
         <v>73</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="14" t="s">
         <v>74</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="14" t="s">
         <v>75</v>
       </c>
@@ -9484,7 +9486,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="14" t="s">
         <v>76</v>
       </c>
@@ -9501,7 +9503,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="14" t="s">
         <v>77</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="14" t="s">
         <v>87</v>
       </c>
@@ -9535,7 +9537,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="14" t="s">
         <v>91</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="14" t="s">
         <v>58</v>
       </c>
@@ -9569,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="14" t="s">
         <v>59</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="14" t="s">
         <v>59</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="14" t="s">
         <v>59</v>
       </c>
@@ -9620,7 +9622,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="14" t="s">
         <v>59</v>
       </c>
@@ -9637,7 +9639,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="14" t="s">
         <v>60</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="14" t="s">
         <v>60</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="14" t="s">
         <v>60</v>
       </c>
@@ -9688,7 +9690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="14" t="s">
         <v>60</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="14" t="s">
         <v>60</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="14" t="s">
         <v>60</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="14" t="s">
         <v>60</v>
       </c>
@@ -9756,7 +9758,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="14" t="s">
         <v>60</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="14" t="s">
         <v>60</v>
       </c>
@@ -9790,7 +9792,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="14" t="s">
         <v>60</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="14" t="s">
         <v>60</v>
       </c>
@@ -9824,7 +9826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="14" t="s">
         <v>60</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="14" t="s">
         <v>60</v>
       </c>
@@ -9858,7 +9860,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="14" t="s">
         <v>60</v>
       </c>
@@ -9875,7 +9877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="14" t="s">
         <v>60</v>
       </c>
@@ -9892,7 +9894,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="14" t="s">
         <v>60</v>
       </c>
@@ -9909,7 +9911,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="14" t="s">
         <v>60</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="14" t="s">
         <v>60</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="14" t="s">
         <v>60</v>
       </c>
@@ -9960,7 +9962,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="14" t="s">
         <v>60</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="14" t="s">
         <v>60</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="14" t="s">
         <v>60</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="14" t="s">
         <v>60</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="14" t="s">
         <v>60</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="14" t="s">
         <v>60</v>
       </c>
@@ -10062,7 +10064,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="14" t="s">
         <v>60</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="14" t="s">
         <v>60</v>
       </c>
@@ -10096,7 +10098,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="14" t="s">
         <v>60</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="14" t="s">
         <v>60</v>
       </c>
@@ -10130,7 +10132,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="14" t="s">
         <v>60</v>
       </c>
@@ -10147,7 +10149,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="14" t="s">
         <v>60</v>
       </c>
@@ -10164,7 +10166,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="14" t="s">
         <v>60</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="14" t="s">
         <v>60</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="14" t="s">
         <v>60</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="14" t="s">
         <v>60</v>
       </c>
@@ -10232,7 +10234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="14" t="s">
         <v>29</v>
       </c>
@@ -10249,7 +10251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="14" t="s">
         <v>61</v>
       </c>
@@ -10266,7 +10268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="14" t="s">
         <v>61</v>
       </c>
@@ -10283,7 +10285,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="14" t="s">
         <v>62</v>
       </c>
@@ -10300,7 +10302,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="14" t="s">
         <v>62</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="14" t="s">
         <v>72</v>
       </c>
@@ -10334,7 +10336,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="14" t="s">
         <v>72</v>
       </c>
@@ -10351,7 +10353,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="14" t="s">
         <v>73</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="14" t="s">
         <v>73</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="14" t="s">
         <v>74</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="14" t="s">
         <v>75</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="14" t="s">
         <v>76</v>
       </c>
@@ -10436,7 +10438,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="14" t="s">
         <v>76</v>
       </c>
@@ -10454,7 +10456,7 @@
       </c>
       <c r="F524" s="22"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="14" t="s">
         <v>77</v>
       </c>
@@ -10471,7 +10473,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="14" t="s">
         <v>87</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="14" t="s">
         <v>58</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="14" t="s">
         <v>59</v>
       </c>
@@ -10522,7 +10524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="14" t="s">
         <v>60</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="14" t="s">
         <v>60</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="14" t="s">
         <v>60</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="14" t="s">
         <v>60</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="14" t="s">
         <v>60</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="14" t="s">
         <v>60</v>
       </c>
@@ -10624,7 +10626,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="14" t="s">
         <v>60</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="14" t="s">
         <v>60</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="14" t="s">
         <v>30</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="14" t="s">
         <v>61</v>
       </c>
@@ -10692,7 +10694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="14" t="s">
         <v>61</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="14" t="s">
         <v>62</v>
       </c>
@@ -10726,7 +10728,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="14" t="s">
         <v>62</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="14" t="s">
         <v>72</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="14" t="s">
         <v>72</v>
       </c>
@@ -10777,7 +10779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="14" t="s">
         <v>73</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="14" t="s">
         <v>73</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="14" t="s">
         <v>74</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="14" t="s">
         <v>75</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="14" t="s">
         <v>76</v>
       </c>
@@ -10862,7 +10864,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="14" t="s">
         <v>76</v>
       </c>
@@ -10880,7 +10882,7 @@
       </c>
       <c r="F549" s="22"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="14" t="s">
         <v>77</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="14" t="s">
         <v>87</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="14" t="s">
         <v>58</v>
       </c>
@@ -10931,7 +10933,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="14" t="s">
         <v>59</v>
       </c>
@@ -10948,7 +10950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="14" t="s">
         <v>60</v>
       </c>
@@ -10962,7 +10964,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="14" t="s">
         <v>60</v>
       </c>
@@ -10980,7 +10982,7 @@
       </c>
       <c r="F555" s="22"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="14" t="s">
         <v>180</v>
       </c>
@@ -10997,7 +10999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="14" t="s">
         <v>180</v>
       </c>
@@ -11014,7 +11016,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="14" t="s">
         <v>180</v>
       </c>
@@ -11031,7 +11033,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="14" t="s">
         <v>180</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="14" t="s">
         <v>180</v>
       </c>
@@ -11065,7 +11067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="14" t="s">
         <v>180</v>
       </c>
@@ -11082,7 +11084,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="14" t="s">
         <v>180</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="14" t="s">
         <v>28</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="14" t="s">
         <v>61</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="14" t="s">
         <v>61</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="14" t="s">
         <v>62</v>
       </c>
@@ -11167,7 +11169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="14" t="s">
         <v>62</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="14" t="s">
         <v>72</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="14" t="s">
         <v>72</v>
       </c>
@@ -11218,7 +11220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="14" t="s">
         <v>73</v>
       </c>
@@ -11235,7 +11237,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="14" t="s">
         <v>73</v>
       </c>
@@ -11252,7 +11254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="14" t="s">
         <v>74</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="14" t="s">
         <v>74</v>
       </c>
@@ -11284,7 +11286,7 @@
       </c>
       <c r="F573" s="22"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="14" t="s">
         <v>75</v>
       </c>
@@ -11304,7 +11306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="14" t="s">
         <v>76</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="14" t="s">
         <v>77</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="14" t="s">
         <v>87</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="14" t="s">
         <v>58</v>
       </c>
@@ -11372,7 +11374,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="14" t="s">
         <v>59</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="14" t="s">
         <v>60</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="14" t="s">
         <v>60</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="14" t="s">
         <v>60</v>
       </c>
@@ -11443,7 +11445,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="14" t="s">
         <v>60</v>
       </c>
@@ -11460,7 +11462,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="14" t="s">
         <v>60</v>
       </c>
@@ -11477,7 +11479,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="14" t="s">
         <v>60</v>
       </c>
@@ -11494,7 +11496,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="14" t="s">
         <v>60</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="14" t="s">
         <v>32</v>
       </c>
@@ -11528,7 +11530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="14" t="s">
         <v>61</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="14" t="s">
         <v>61</v>
       </c>
@@ -11556,7 +11558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="14" t="s">
         <v>62</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="14" t="s">
         <v>62</v>
       </c>
@@ -11584,7 +11586,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="14" t="s">
         <v>62</v>
       </c>
@@ -11601,7 +11603,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="14" t="s">
         <v>72</v>
       </c>
@@ -11612,7 +11614,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="14" t="s">
         <v>72</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="14" t="s">
         <v>72</v>
       </c>
@@ -11646,7 +11648,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="14" t="s">
         <v>73</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="14" t="s">
         <v>74</v>
       </c>
@@ -11683,7 +11685,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="14" t="s">
         <v>75</v>
       </c>
@@ -11700,7 +11702,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="14" t="s">
         <v>58</v>
       </c>
@@ -11717,7 +11719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="14" t="s">
         <v>33</v>
       </c>
@@ -11734,7 +11736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="14" t="s">
         <v>61</v>
       </c>
@@ -11751,7 +11753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="14" t="s">
         <v>61</v>
       </c>
@@ -11768,7 +11770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="14" t="s">
         <v>62</v>
       </c>
@@ -11785,7 +11787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="14" t="s">
         <v>62</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="14" t="s">
         <v>62</v>
       </c>
@@ -11819,7 +11821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="14" t="s">
         <v>72</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="14" t="s">
         <v>72</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="14" t="s">
         <v>73</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="14" t="s">
         <v>74</v>
       </c>
@@ -11887,7 +11889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="14" t="s">
         <v>75</v>
       </c>
@@ -11904,7 +11906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="14" t="s">
         <v>76</v>
       </c>
@@ -11921,7 +11923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="14" t="s">
         <v>77</v>
       </c>
@@ -11938,7 +11940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="14" t="s">
         <v>87</v>
       </c>
@@ -11955,7 +11957,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="14" t="s">
         <v>58</v>
       </c>
@@ -11972,7 +11974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="14" t="s">
         <v>34</v>
       </c>
@@ -11989,7 +11991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="14" t="s">
         <v>55</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="14" t="s">
         <v>61</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="14" t="s">
         <v>62</v>
       </c>
@@ -12043,7 +12045,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="14" t="s">
         <v>72</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="14" t="s">
         <v>73</v>
       </c>
@@ -12077,7 +12079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="14" t="s">
         <v>74</v>
       </c>
@@ -12094,7 +12096,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="14" t="s">
         <v>75</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="14" t="s">
         <v>76</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="14" t="s">
         <v>77</v>
       </c>
@@ -12145,7 +12147,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="14" t="s">
         <v>87</v>
       </c>
@@ -12162,7 +12164,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626" s="14" t="s">
         <v>87</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="14" t="s">
         <v>91</v>
       </c>
@@ -12196,7 +12198,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="14" t="s">
         <v>91</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="14" t="s">
         <v>92</v>
       </c>
@@ -12230,7 +12232,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="14" t="s">
         <v>93</v>
       </c>
@@ -12247,7 +12249,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="14" t="s">
         <v>58</v>
       </c>
@@ -12264,7 +12266,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="14" t="s">
         <v>58</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="14" t="s">
         <v>58</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="14" t="s">
         <v>58</v>
       </c>
@@ -12315,7 +12317,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="14" t="s">
         <v>58</v>
       </c>
@@ -12332,7 +12334,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="14" t="s">
         <v>58</v>
       </c>
@@ -12349,7 +12351,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="14" t="s">
         <v>58</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="14" t="s">
         <v>58</v>
       </c>
@@ -12383,7 +12385,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="14" t="s">
         <v>58</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="14" t="s">
         <v>59</v>
       </c>
@@ -12417,7 +12419,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="14" t="s">
         <v>59</v>
       </c>
@@ -12434,7 +12436,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="14" t="s">
         <v>59</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="14" t="s">
         <v>59</v>
       </c>
@@ -12468,7 +12470,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="14" t="s">
         <v>59</v>
       </c>
@@ -12485,7 +12487,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="14" t="s">
         <v>59</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="14" t="s">
         <v>59</v>
       </c>
@@ -12519,7 +12521,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="14" t="s">
         <v>59</v>
       </c>
@@ -12536,7 +12538,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="14" t="s">
         <v>41</v>
       </c>
@@ -12553,7 +12555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="14" t="s">
         <v>61</v>
       </c>
@@ -12570,7 +12572,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="14" t="s">
         <v>62</v>
       </c>
@@ -12587,7 +12589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="14" t="s">
         <v>72</v>
       </c>
@@ -12604,7 +12606,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="14" t="s">
         <v>73</v>
       </c>
@@ -12621,7 +12623,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="14" t="s">
         <v>74</v>
       </c>
@@ -12638,7 +12640,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="14" t="s">
         <v>75</v>
       </c>
@@ -12655,7 +12657,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="14" t="s">
         <v>76</v>
       </c>
@@ -12672,7 +12674,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="14" t="s">
         <v>77</v>
       </c>
@@ -12689,7 +12691,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="14" t="s">
         <v>87</v>
       </c>
@@ -12706,7 +12708,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="14" t="s">
         <v>87</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="14" t="s">
         <v>91</v>
       </c>
@@ -12740,7 +12742,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="14" t="s">
         <v>91</v>
       </c>
@@ -12757,7 +12759,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="14" t="s">
         <v>92</v>
       </c>
@@ -12774,7 +12776,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="14" t="s">
         <v>58</v>
       </c>
@@ -12791,7 +12793,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="14" t="s">
         <v>59</v>
       </c>
@@ -12808,7 +12810,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="14" t="s">
         <v>59</v>
       </c>
@@ -12825,7 +12827,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="14" t="s">
         <v>59</v>
       </c>
@@ -12842,7 +12844,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="14" t="s">
         <v>59</v>
       </c>
@@ -12859,7 +12861,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667" s="14" t="s">
         <v>59</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668" s="14" t="s">
         <v>59</v>
       </c>
@@ -12893,7 +12895,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669" s="14" t="s">
         <v>59</v>
       </c>
@@ -12910,7 +12912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670" s="14" t="s">
         <v>59</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671" s="14" t="s">
         <v>59</v>
       </c>
@@ -12944,7 +12946,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672" s="14" t="s">
         <v>59</v>
       </c>
@@ -12961,7 +12963,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673" s="14" t="s">
         <v>59</v>
       </c>
@@ -12978,7 +12980,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674" s="14" t="s">
         <v>59</v>
       </c>
@@ -12995,7 +12997,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="14" t="s">
         <v>59</v>
       </c>
@@ -13012,7 +13014,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676" s="14" t="s">
         <v>59</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677" s="14" t="s">
         <v>59</v>
       </c>
@@ -13046,7 +13048,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678" s="14" t="s">
         <v>59</v>
       </c>
@@ -13063,7 +13065,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679" s="14" t="s">
         <v>59</v>
       </c>
@@ -13080,7 +13082,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680" s="14" t="s">
         <v>59</v>
       </c>
@@ -13097,7 +13099,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681" s="14" t="s">
         <v>59</v>
       </c>
@@ -13114,7 +13116,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682" s="14" t="s">
         <v>59</v>
       </c>
@@ -13131,7 +13133,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="14" t="s">
         <v>59</v>
       </c>
@@ -13148,7 +13150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="14" t="s">
         <v>184</v>
       </c>
@@ -13165,7 +13167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685" s="14" t="s">
         <v>61</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" s="14" t="s">
         <v>62</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" s="14" t="s">
         <v>72</v>
       </c>
@@ -13216,7 +13218,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" s="14" t="s">
         <v>73</v>
       </c>
@@ -13233,7 +13235,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" s="14" t="s">
         <v>74</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" s="14" t="s">
         <v>75</v>
       </c>
@@ -13267,7 +13269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" s="14" t="s">
         <v>76</v>
       </c>
@@ -13284,7 +13286,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" s="14" t="s">
         <v>58</v>
       </c>
@@ -13304,7 +13306,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" s="14" t="s">
         <v>42</v>
       </c>
@@ -13321,7 +13323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" s="14" t="s">
         <v>61</v>
       </c>
@@ -13338,7 +13340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" s="14" t="s">
         <v>62</v>
       </c>
@@ -13355,7 +13357,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" s="14" t="s">
         <v>72</v>
       </c>
@@ -13372,7 +13374,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" s="14" t="s">
         <v>73</v>
       </c>
@@ -13389,7 +13391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" s="14" t="s">
         <v>74</v>
       </c>
@@ -13409,7 +13411,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" s="14" t="s">
         <v>75</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" s="14" t="s">
         <v>76</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" s="14" t="s">
         <v>58</v>
       </c>
@@ -13460,7 +13462,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" s="14" t="s">
         <v>59</v>
       </c>
@@ -13477,7 +13479,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" s="14" t="s">
         <v>59</v>
       </c>
@@ -13494,7 +13496,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" s="14" t="s">
         <v>60</v>
       </c>
@@ -13511,7 +13513,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="14" t="s">
         <v>60</v>
       </c>
@@ -13528,7 +13530,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="14" t="s">
         <v>43</v>
       </c>
@@ -13545,7 +13547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="14" t="s">
         <v>61</v>
       </c>
@@ -13562,7 +13564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" s="14" t="s">
         <v>62</v>
       </c>
@@ -13579,7 +13581,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" s="14" t="s">
         <v>72</v>
       </c>
@@ -13593,7 +13595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="14" t="s">
         <v>72</v>
       </c>
@@ -13610,7 +13612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="14" t="s">
         <v>72</v>
       </c>
@@ -13627,7 +13629,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" s="14" t="s">
         <v>72</v>
       </c>
@@ -13644,7 +13646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" s="14" t="s">
         <v>73</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" s="14" t="s">
         <v>73</v>
       </c>
@@ -13676,7 +13678,7 @@
       </c>
       <c r="F714" s="14"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="14" t="s">
         <v>73</v>
       </c>
@@ -13693,7 +13695,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="14" t="s">
         <v>74</v>
       </c>
@@ -13710,7 +13712,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" s="14" t="s">
         <v>75</v>
       </c>
@@ -13727,7 +13729,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" s="14" t="s">
         <v>58</v>
       </c>
@@ -13744,7 +13746,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" s="14" t="s">
         <v>58</v>
       </c>
@@ -13761,7 +13763,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" s="14" t="s">
         <v>58</v>
       </c>
@@ -13778,7 +13780,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721" s="14" t="s">
         <v>58</v>
       </c>
@@ -13795,7 +13797,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722" s="14" t="s">
         <v>58</v>
       </c>
@@ -13812,7 +13814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723" s="14" t="s">
         <v>58</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724" s="14" t="s">
         <v>58</v>
       </c>
@@ -13846,7 +13848,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725" s="14" t="s">
         <v>58</v>
       </c>
@@ -13863,7 +13865,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726" s="14" t="s">
         <v>58</v>
       </c>
@@ -13880,7 +13882,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727" s="14" t="s">
         <v>58</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728" s="14" t="s">
         <v>59</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729" s="14" t="s">
         <v>59</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730" s="14" t="s">
         <v>59</v>
       </c>
@@ -13948,7 +13950,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731" s="14" t="s">
         <v>59</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732" s="14" t="s">
         <v>59</v>
       </c>
@@ -13982,7 +13984,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733" s="14" t="s">
         <v>59</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734" s="14" t="s">
         <v>59</v>
       </c>
@@ -14016,7 +14018,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735" s="14" t="s">
         <v>59</v>
       </c>
@@ -14033,7 +14035,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736" s="14" t="s">
         <v>59</v>
       </c>
@@ -14050,7 +14052,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737" s="14" t="s">
         <v>59</v>
       </c>
@@ -14067,7 +14069,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738" s="14" t="s">
         <v>60</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739" s="14" t="s">
         <v>60</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740" s="14" t="s">
         <v>60</v>
       </c>
@@ -14118,7 +14120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741" s="14" t="s">
         <v>60</v>
       </c>
@@ -14135,7 +14137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742" s="14" t="s">
         <v>60</v>
       </c>
@@ -14152,7 +14154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743" s="14" t="s">
         <v>60</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744" s="14" t="s">
         <v>60</v>
       </c>
@@ -14186,7 +14188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745" s="14" t="s">
         <v>60</v>
       </c>
@@ -14203,7 +14205,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746" s="14" t="s">
         <v>60</v>
       </c>
@@ -14220,7 +14222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747" s="14" t="s">
         <v>60</v>
       </c>
@@ -14237,7 +14239,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748" s="14" t="s">
         <v>46</v>
       </c>
@@ -14254,7 +14256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749" s="14" t="s">
         <v>61</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" s="14" t="s">
         <v>62</v>
       </c>
@@ -14288,7 +14290,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" s="14" t="s">
         <v>72</v>
       </c>
@@ -14305,7 +14307,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" s="14" t="s">
         <v>73</v>
       </c>
@@ -14322,7 +14324,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" s="14" t="s">
         <v>74</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" s="14" t="s">
         <v>75</v>
       </c>
@@ -14356,7 +14358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" s="14" t="s">
         <v>76</v>
       </c>
@@ -14373,7 +14375,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" s="14" t="s">
         <v>77</v>
       </c>
@@ -14390,7 +14392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" s="14" t="s">
         <v>87</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" s="14" t="s">
         <v>91</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" s="14" t="s">
         <v>92</v>
       </c>
@@ -14441,7 +14443,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" s="14" t="s">
         <v>92</v>
       </c>
@@ -14458,7 +14460,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" s="14" t="s">
         <v>93</v>
       </c>
@@ -14475,7 +14477,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" s="14" t="s">
         <v>58</v>
       </c>
@@ -14492,7 +14494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" s="14" t="s">
         <v>45</v>
       </c>
@@ -14510,7 +14512,7 @@
       </c>
       <c r="F763" s="14"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" s="14" t="s">
         <v>61</v>
       </c>
@@ -14528,7 +14530,7 @@
       </c>
       <c r="F764" s="14"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" s="14" t="s">
         <v>62</v>
       </c>
@@ -14546,7 +14548,7 @@
       </c>
       <c r="F765" s="14"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766" s="14" t="s">
         <v>72</v>
       </c>
@@ -14564,7 +14566,7 @@
       </c>
       <c r="F766" s="14"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" s="14" t="s">
         <v>73</v>
       </c>
@@ -14581,7 +14583,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768" s="14" t="s">
         <v>74</v>
       </c>
@@ -14598,7 +14600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" s="14" t="s">
         <v>75</v>
       </c>
@@ -14615,7 +14617,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="14" t="s">
         <v>76</v>
       </c>
@@ -14632,7 +14634,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="14" t="s">
         <v>76</v>
       </c>
@@ -14649,7 +14651,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" s="14" t="s">
         <v>77</v>
       </c>
@@ -14666,7 +14668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" s="14" t="s">
         <v>87</v>
       </c>
@@ -14683,7 +14685,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" s="14" t="s">
         <v>91</v>
       </c>
@@ -14700,7 +14702,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" s="14" t="s">
         <v>92</v>
       </c>
@@ -14717,7 +14719,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" s="14" t="s">
         <v>92</v>
       </c>
@@ -14734,7 +14736,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" s="14" t="s">
         <v>93</v>
       </c>
@@ -14754,7 +14756,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" s="14" t="s">
         <v>58</v>
       </c>
@@ -14771,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" s="14" t="s">
         <v>44</v>
       </c>
@@ -14788,7 +14790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" s="14" t="s">
         <v>61</v>
       </c>
@@ -14805,7 +14807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" s="14" t="s">
         <v>62</v>
       </c>
@@ -14822,7 +14824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" s="14" t="s">
         <v>72</v>
       </c>
@@ -14836,7 +14838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" s="14" t="s">
         <v>72</v>
       </c>
@@ -14853,7 +14855,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" s="14" t="s">
         <v>72</v>
       </c>
@@ -14870,7 +14872,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785" s="14" t="s">
         <v>72</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786" s="14" t="s">
         <v>72</v>
       </c>
@@ -14904,7 +14906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787" s="14" t="s">
         <v>73</v>
       </c>
@@ -14921,7 +14923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788" s="14" t="s">
         <v>74</v>
       </c>
@@ -14938,7 +14940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789" s="14" t="s">
         <v>75</v>
       </c>
@@ -14955,7 +14957,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790" s="14" t="s">
         <v>76</v>
       </c>
@@ -14972,7 +14974,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791" s="14" t="s">
         <v>76</v>
       </c>
@@ -14989,7 +14991,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792" s="14" t="s">
         <v>77</v>
       </c>
@@ -15006,7 +15008,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793" s="14" t="s">
         <v>77</v>
       </c>
@@ -15023,7 +15025,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794" s="14" t="s">
         <v>87</v>
       </c>
@@ -15040,7 +15042,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795" s="14" t="s">
         <v>91</v>
       </c>
@@ -15057,7 +15059,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796" s="14" t="s">
         <v>92</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797" s="14" t="s">
         <v>58</v>
       </c>
@@ -15091,7 +15093,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798" s="14" t="s">
         <v>58</v>
       </c>
@@ -15108,7 +15110,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799" s="14" t="s">
         <v>58</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" s="14" t="s">
         <v>58</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801" s="14" t="s">
         <v>58</v>
       </c>
@@ -15159,7 +15161,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802" s="14" t="s">
         <v>58</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803" s="14" t="s">
         <v>58</v>
       </c>
@@ -15193,7 +15195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804" s="14" t="s">
         <v>58</v>
       </c>
@@ -15210,7 +15212,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805" s="14" t="s">
         <v>58</v>
       </c>
@@ -15227,7 +15229,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806" s="14" t="s">
         <v>59</v>
       </c>
@@ -15244,7 +15246,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807" s="14" t="s">
         <v>59</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808" s="14" t="s">
         <v>59</v>
       </c>
@@ -15278,7 +15280,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809" s="14" t="s">
         <v>59</v>
       </c>
@@ -15295,7 +15297,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810" s="14" t="s">
         <v>59</v>
       </c>
@@ -15312,7 +15314,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811" s="14" t="s">
         <v>59</v>
       </c>
@@ -15329,7 +15331,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812" s="14" t="s">
         <v>59</v>
       </c>
@@ -15346,7 +15348,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" s="14" t="s">
         <v>231</v>
       </c>
@@ -15360,7 +15362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814" s="14" t="s">
         <v>232</v>
       </c>
@@ -15374,7 +15376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815" s="14" t="s">
         <v>233</v>
       </c>
@@ -15388,7 +15390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816" s="14" t="s">
         <v>234</v>
       </c>
@@ -15402,7 +15404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817" s="14" t="s">
         <v>235</v>
       </c>
@@ -15416,7 +15418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818" s="14" t="s">
         <v>236</v>
       </c>
@@ -15430,7 +15432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819" s="14" t="s">
         <v>237</v>
       </c>
@@ -15444,7 +15446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820" s="14" t="s">
         <v>238</v>
       </c>
@@ -15458,7 +15460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821" s="14" t="s">
         <v>239</v>
       </c>
@@ -15472,7 +15474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822" s="14" t="s">
         <v>240</v>
       </c>
@@ -15486,7 +15488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823" s="14" t="s">
         <v>241</v>
       </c>
@@ -15500,7 +15502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824" s="14" t="s">
         <v>242</v>
       </c>
@@ -15514,7 +15516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825" s="14" t="s">
         <v>243</v>
       </c>
@@ -15528,7 +15530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826" s="14" t="s">
         <v>244</v>
       </c>
@@ -15542,7 +15544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827" s="14" t="s">
         <v>245</v>
       </c>
@@ -15556,7 +15558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828" s="14" t="s">
         <v>246</v>
       </c>
@@ -15570,7 +15572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829" s="14" t="s">
         <v>247</v>
       </c>
@@ -15587,7 +15589,7 @@
   </sheetData>
   <autoFilter ref="C1:C830" xr:uid="{701C36C7-83AA-41D8-8B1C-C0D8358D86FD}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A207 A209:A233 A235:A260 A262:A334 A411:A460 A462:A511 A513:A536 A538:A562 A564:A586 A588:A599 A601:A614 A616:A647 A649:A683 A685:A692 A694:A705 A707:A747 A749:A762 A764:A778 A780:A812 A830:A1048576 A336:A409">
+  <conditionalFormatting sqref="A1 A3:A35 A37:A69 A71:A109 A111:A137 A139:A164 A166:A177 A179:A190 A192:A207 A209:A233 A235:A260 A262:A334 A336:A409 A411:A460 A462:A511 A513:A536 A538:A562 A564:A586 A588:A599 A601:A614 A616:A647 A649:A683 A685:A692 A694:A705 A707:A747 A749:A762 A764:A778 A780:A812 A830:A1048576">
     <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="elc ">
       <formula>NOT(ISERROR(SEARCH("elc ",A1)))</formula>
     </cfRule>
@@ -15611,15 +15613,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15643,7 +15645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -15660,7 +15662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
@@ -15694,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
@@ -15711,7 +15713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -15728,7 +15730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -15748,7 +15750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -15768,7 +15770,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -15808,7 +15810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -15842,7 +15844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -15859,7 +15861,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>230</v>
       </c>
@@ -15873,7 +15875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -15893,7 +15895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15910,7 +15912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
@@ -15927,7 +15929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -15944,7 +15946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -15981,7 +15983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -16018,7 +16020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -16038,7 +16040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
@@ -16055,7 +16057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
@@ -16072,7 +16074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -16092,7 +16094,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -16112,7 +16114,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -16132,7 +16134,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>231</v>
       </c>
@@ -16146,7 +16148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>232</v>
       </c>
@@ -16160,7 +16162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>233</v>
       </c>
@@ -16174,7 +16176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>234</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>235</v>
       </c>
@@ -16202,7 +16204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>236</v>
       </c>
@@ -16216,7 +16218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>237</v>
       </c>
@@ -16230,7 +16232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>238</v>
       </c>
@@ -16244,7 +16246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>239</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>240</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>241</v>
       </c>
@@ -16286,7 +16288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>242</v>
       </c>
@@ -16300,7 +16302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>243</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>244</v>
       </c>
@@ -16328,7 +16330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>245</v>
       </c>
@@ -16342,7 +16344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>246</v>
       </c>
@@ -16356,7 +16358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>247</v>
       </c>
@@ -16370,12 +16372,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>66</v>
       </c>
@@ -16392,18 +16394,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>36</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>37</v>
       </c>
@@ -16442,18 +16444,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16467,7 +16469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -16484,7 +16486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -16498,7 +16500,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -16510,7 +16512,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -16522,7 +16524,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -16536,7 +16538,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -16548,7 +16550,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -16560,7 +16562,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -16574,7 +16576,7 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -16586,7 +16588,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -16598,7 +16600,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -16610,7 +16612,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -16624,7 +16626,7 @@
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -16656,12 +16658,12 @@
       <selection activeCell="C15" sqref="C15:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16675,7 +16677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16689,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -16723,7 +16725,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -16740,7 +16742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -16757,7 +16759,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -16792,7 +16794,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -16818,7 +16820,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -16898,7 +16900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -16909,7 +16911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -16926,7 +16928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -16956,13 +16958,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -16973,7 +16975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -16984,7 +16986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -16995,7 +16997,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>143</v>
       </c>
@@ -17006,7 +17008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>154</v>
       </c>
@@ -17017,7 +17019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>152</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>129</v>
       </c>
@@ -17039,7 +17041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>124</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>130</v>
       </c>
@@ -17061,7 +17063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>137</v>
       </c>
@@ -17072,7 +17074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>132</v>
       </c>
@@ -17083,7 +17085,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>139</v>
       </c>
@@ -17094,7 +17096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>144</v>
       </c>
@@ -17105,7 +17107,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>150</v>
       </c>
@@ -17116,7 +17118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>147</v>
       </c>
